--- a/public/applications_import.xlsx
+++ b/public/applications_import.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBDBC93-93AA-46FA-8130-5BEEF60E2D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71444A3-CC8E-4C5F-8E58-E657E1F3C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="343">
   <si>
     <t>Логин (ID)</t>
   </si>
@@ -1110,9 +1110,6 @@
   </si>
   <si>
     <t>Дата заказа (example: 01.08.2024)</t>
-  </si>
-  <si>
-    <t>AA-123</t>
   </si>
   <si>
     <t>Авто</t>
@@ -1170,7 +1167,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,12 +1177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,10 +1227,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1555,13 +1543,13 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -1583,11 +1571,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>332</v>
@@ -1616,86 +1604,83 @@
       <c r="K1" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="I2" s="7">
+        <v>144</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="O2" s="8">
+        <v>12345</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="8">
-        <v>144</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="N2" s="9">
-        <v>9999999999</v>
-      </c>
-      <c r="O2" s="9">
-        <v>12345</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="8" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
